--- a/Excel Sheets/phys346_t7.xlsx
+++ b/Excel Sheets/phys346_t7.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\OneDrive\Desktop\Spring 2024\Assignments\Physics\Adlab Lab 5 - RLE\Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d0add38f13e4a50/Desktop/Spring 2024/Assignments/Physics/Adlab Lab 5 - RLE/AdLab_Lab_5/Excel Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA44CAD-A384-45B4-A212-7D690AF4DCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{DBA44CAD-A384-45B4-A212-7D690AF4DCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9B258DF-6E7A-486C-866B-04A313462F1F}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B172C8C6-7D3F-4516-B188-A82CFDF87B30}"/>
+    <workbookView xWindow="3640" yWindow="3640" windowWidth="19200" windowHeight="9980" xr2:uid="{B172C8C6-7D3F-4516-B188-A82CFDF87B30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="bt">Sheet1!$F$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -97,6 +100,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36C4B30-E846-4E8E-9968-FF3CDB4A6A11}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -435,6 +442,149 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="C3">
+        <v>3.3000000000001251E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>0.21</v>
+      </c>
+      <c r="B4">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="C4">
+        <v>6.7000000000000171E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>0.41449999999999998</v>
+      </c>
+      <c r="B5">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.10000000000000142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>0.59350000000000003</v>
+      </c>
+      <c r="B6">
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.13400000000000034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="B7">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.16700000000000159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>0.9395</v>
+      </c>
+      <c r="B8">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.20100000000000051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>1.1054999999999999</v>
+      </c>
+      <c r="B9">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.23500000000000654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>1.2552000000000001</v>
+      </c>
+      <c r="B10">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.26800000000000068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>1.4325000000000001</v>
+      </c>
+      <c r="B11">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.3019999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>1.5714999999999999</v>
+      </c>
+      <c r="B12">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.33500000000000085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>1.7195</v>
+      </c>
+      <c r="B13">
+        <v>0.5595</v>
+      </c>
+      <c r="C13">
+        <v>0.36899999999999977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>1.8745000000000001</v>
+      </c>
+      <c r="B14">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="C14">
+        <v>0.40100000000000335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
